--- a/public/excel/2.xlsx
+++ b/public/excel/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>区域名称</t>
   </si>
@@ -79,17 +82,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,6 +108,74 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,82 +188,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -195,35 +202,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -241,31 +244,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,145 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,16 +447,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -463,25 +466,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +486,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -516,28 +521,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,162 +552,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,60 +1055,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="7.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="10.5" style="2" customWidth="1"/>
-    <col min="14" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="11.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="2" customWidth="1"/>
-    <col min="18" max="31" width="9.125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="11.25" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="7.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="3" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="3" customWidth="1"/>
+    <col min="15" max="16" width="9" style="3"/>
+    <col min="17" max="17" width="11.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14.25" style="3" customWidth="1"/>
+    <col min="19" max="32" width="9.125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="11.25" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
